--- a/data/raw_data/2019/companies-issued-with-permits-2019.xlsx
+++ b/data/raw_data/2019/companies-issued-with-permits-2019.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\WPERMITS\Dashboard - Monthly Stats &amp; Web Statistics\WEBSITE Statistics\2019\Dec 2019 -\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My Drive\ESTUDOS DATA SCIENCE\ie-employment-permit\data\raw_data\2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{697CD753-24BB-43A2-8AD6-947BC9CF75A2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BB40FEE-A331-4DAA-9691-2FFE84A7DB52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51F68776-9E86-47F8-9B1E-D2BE8DCBD779}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{51F68776-9E86-47F8-9B1E-D2BE8DCBD779}"/>
   </bookViews>
   <sheets>
     <sheet name="Companies Issued with Permits" sheetId="1" r:id="rId1"/>
@@ -9398,7 +9398,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -9723,21 +9723,6 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -9760,17 +9745,6 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -9778,7 +9752,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -9830,10 +9804,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -10150,8 +10122,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5B0593F-A15F-48D0-A21F-B6BBB473B82E}">
   <dimension ref="A1:F6016"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5566" workbookViewId="0">
-      <selection activeCell="C5641" sqref="C5641"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10185,7 +10157,7 @@
         <v>2019</v>
       </c>
       <c r="C3" s="13"/>
-      <c r="D3" s="48">
+      <c r="D3" s="47">
         <v>16383</v>
       </c>
       <c r="E3" s="16" t="s">
@@ -50410,14 +50382,14 @@
       </c>
     </row>
     <row r="5029" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5029" s="44" t="s">
+      <c r="B5029" s="44"/>
+      <c r="C5029" s="44" t="s">
         <v>2737</v>
       </c>
-      <c r="C5029" s="45"/>
-      <c r="D5029" s="46">
+      <c r="D5029" s="45">
         <v>1367</v>
       </c>
-      <c r="E5029" s="47"/>
+      <c r="E5029" s="46"/>
     </row>
     <row r="5030" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D5030" s="35">
@@ -55308,11 +55280,11 @@
       </c>
     </row>
     <row r="5641" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5641" s="28" t="s">
+      <c r="B5641" s="28"/>
+      <c r="C5641" s="28" t="s">
         <v>2983</v>
       </c>
-      <c r="C5641" s="49"/>
-      <c r="D5641" s="50">
+      <c r="D5641" s="48">
         <v>1002</v>
       </c>
       <c r="E5641" s="33"/>
